--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Educational\Pycharm\Auto Birthday Wisher\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B2B0C-E511-46D3-9DCB-B24703808F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3255" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -130,11 +124,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,21 +192,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,7 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -319,10 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -495,19 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -541,7 +520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -558,7 +537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -575,7 +554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -592,7 +571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -609,7 +588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -626,7 +605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -643,7 +622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -660,7 +639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -677,7 +656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -694,7 +673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -704,14 +683,14 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12">
-        <v>2001</v>
+      <c r="D12" t="s">
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -728,7 +707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -745,7 +724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -761,9 +740,6 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
